--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_36ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1977,28 +1977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.1939009078901</v>
+        <v>213.7807027489241</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.4445124652595</v>
+        <v>292.5041888399172</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.3059484686558</v>
+        <v>264.5879995893292</v>
       </c>
       <c r="AD2" t="n">
-        <v>177193.9009078901</v>
+        <v>213780.7027489241</v>
       </c>
       <c r="AE2" t="n">
-        <v>242444.5124652595</v>
+        <v>292504.1888399172</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.726755011388815e-06</v>
+        <v>5.045210674876432e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.572916666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>219305.9484686558</v>
+        <v>264587.9995893292</v>
       </c>
     </row>
     <row r="3">
@@ -2083,28 +2083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.3205588040108</v>
+        <v>147.6265086853462</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.7326290746559</v>
+        <v>201.9891020051118</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.6290237735499</v>
+        <v>182.7115456032865</v>
       </c>
       <c r="AD3" t="n">
-        <v>123320.5588040108</v>
+        <v>147626.5086853462</v>
       </c>
       <c r="AE3" t="n">
-        <v>168732.6290746559</v>
+        <v>201989.1020051118</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.623979252809589e-06</v>
+        <v>6.705310427757575e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.192708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>152629.0237735499</v>
+        <v>182711.5456032865</v>
       </c>
     </row>
     <row r="4">
@@ -2189,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.25009625327367</v>
+        <v>122.6412974806297</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.4301161820067</v>
+        <v>167.8032337651118</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.6002945674849</v>
+        <v>151.7883286479338</v>
       </c>
       <c r="AD4" t="n">
-        <v>98250.09625327367</v>
+        <v>122641.2974806297</v>
       </c>
       <c r="AE4" t="n">
-        <v>134430.1161820067</v>
+        <v>167803.2337651118</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.991765565304886e-06</v>
+        <v>7.385811397637383e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.80787037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>121600.2945674849</v>
+        <v>151788.3286479338</v>
       </c>
     </row>
     <row r="5">
@@ -2295,28 +2295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.29465466436153</v>
+        <v>118.6858558917175</v>
       </c>
       <c r="AB5" t="n">
-        <v>129.0181064982926</v>
+        <v>162.3912240813978</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.7047994921795</v>
+        <v>146.8928335726284</v>
       </c>
       <c r="AD5" t="n">
-        <v>94294.65466436153</v>
+        <v>118685.8558917175</v>
       </c>
       <c r="AE5" t="n">
-        <v>129018.1064982926</v>
+        <v>162391.2240813978</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.105205296133081e-06</v>
+        <v>7.595704599827928e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.700810185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>116704.7994921795</v>
+        <v>146892.8335726284</v>
       </c>
     </row>
   </sheetData>
@@ -2592,28 +2592,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.7861126230344</v>
+        <v>168.991908166614</v>
       </c>
       <c r="AB2" t="n">
-        <v>183.0520615174856</v>
+        <v>231.2221841502692</v>
       </c>
       <c r="AC2" t="n">
-        <v>165.5818296814901</v>
+        <v>209.1546634174079</v>
       </c>
       <c r="AD2" t="n">
-        <v>133786.1126230344</v>
+        <v>168991.908166614</v>
       </c>
       <c r="AE2" t="n">
-        <v>183052.0615174857</v>
+        <v>231222.1841502693</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.228587464860082e-06</v>
+        <v>6.154185983670944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.869791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>165581.8296814901</v>
+        <v>209154.6634174079</v>
       </c>
     </row>
     <row r="3">
@@ -2698,28 +2698,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.33923811193891</v>
+        <v>115.866662377373</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.3426193043795</v>
+        <v>158.5338791410336</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.2846570409827</v>
+        <v>143.4036282195537</v>
       </c>
       <c r="AD3" t="n">
-        <v>92339.23811193892</v>
+        <v>115866.6623773731</v>
       </c>
       <c r="AE3" t="n">
-        <v>126342.6193043794</v>
+        <v>158533.8791410336</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129588617844292e-06</v>
+        <v>7.871633234927952e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.80787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>114284.6570409827</v>
+        <v>143403.6282195537</v>
       </c>
     </row>
     <row r="4">
@@ -2804,28 +2804,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>88.86656941155297</v>
+        <v>112.3939936769871</v>
       </c>
       <c r="AB4" t="n">
-        <v>121.5911607851833</v>
+        <v>153.7824206218374</v>
       </c>
       <c r="AC4" t="n">
-        <v>109.9866710541432</v>
+        <v>139.1056422327142</v>
       </c>
       <c r="AD4" t="n">
-        <v>88866.56941155298</v>
+        <v>112393.9936769871</v>
       </c>
       <c r="AE4" t="n">
-        <v>121591.1607851833</v>
+        <v>153782.4206218374</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.240149239306114e-06</v>
+        <v>8.08237884252009e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>109986.6710541432</v>
+        <v>139105.6422327142</v>
       </c>
     </row>
   </sheetData>
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.63849438820689</v>
+        <v>96.56537937058837</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4919249567673</v>
+        <v>132.1250122186545</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.61480089074847</v>
+        <v>119.5151864911606</v>
       </c>
       <c r="AD2" t="n">
-        <v>75638.49438820689</v>
+        <v>96565.37937058837</v>
       </c>
       <c r="AE2" t="n">
-        <v>103491.9249567674</v>
+        <v>132125.0122186545</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.47749614636249e-06</v>
+        <v>9.535895017872423e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.917824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>93614.80089074848</v>
+        <v>119515.1864911606</v>
       </c>
     </row>
   </sheetData>
@@ -3398,28 +3398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.19990147768698</v>
+        <v>105.1434935700874</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.8377757223263</v>
+        <v>143.8619665060927</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.9732581797385</v>
+        <v>130.1319823343282</v>
       </c>
       <c r="AD2" t="n">
-        <v>83199.90147768697</v>
+        <v>105143.4935700874</v>
       </c>
       <c r="AE2" t="n">
-        <v>113837.7757223263</v>
+        <v>143861.9665060927</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.303081440397631e-06</v>
+        <v>8.736743035506396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.900462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>102973.2581797385</v>
+        <v>130131.9823343282</v>
       </c>
     </row>
     <row r="3">
@@ -3504,28 +3504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.93860296801678</v>
+        <v>101.8821950604172</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.375523223062</v>
+        <v>139.3997140068284</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.93687679619183</v>
+        <v>126.0956009507815</v>
       </c>
       <c r="AD3" t="n">
-        <v>79938.60296801678</v>
+        <v>101882.1950604172</v>
       </c>
       <c r="AE3" t="n">
-        <v>109375.523223062</v>
+        <v>139399.7140068283</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.452249517285599e-06</v>
+        <v>9.039605803716148e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.77025462962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>98936.87679619182</v>
+        <v>126095.6009507815</v>
       </c>
     </row>
   </sheetData>
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.98741396296653</v>
+        <v>102.9951392109326</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.5470409303984</v>
+        <v>140.9224932931935</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.7102707083033</v>
+        <v>127.4730483192907</v>
       </c>
       <c r="AD2" t="n">
-        <v>82987.41396296653</v>
+        <v>102995.1392109327</v>
       </c>
       <c r="AE2" t="n">
-        <v>113547.0409303984</v>
+        <v>140922.4932931935</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.412004595595812e-06</v>
+        <v>9.824672463824901e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.129050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>102710.2707083033</v>
+        <v>127473.0483192907</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4098,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>152.2926626639006</v>
+        <v>176.0472128276351</v>
       </c>
       <c r="AB2" t="n">
-        <v>208.3735397347517</v>
+        <v>240.8755632455477</v>
       </c>
       <c r="AC2" t="n">
-        <v>188.4866615566263</v>
+        <v>217.8867375604386</v>
       </c>
       <c r="AD2" t="n">
-        <v>152292.6626639006</v>
+        <v>176047.2128276351</v>
       </c>
       <c r="AE2" t="n">
-        <v>208373.5397347517</v>
+        <v>240875.5632455476</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.105470344008774e-06</v>
+        <v>5.871710500437426e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.017361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>188486.6615566263</v>
+        <v>217886.7375604386</v>
       </c>
     </row>
     <row r="3">
@@ -4204,28 +4204,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.73259441691893</v>
+        <v>120.4870550721023</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.3538032220511</v>
+        <v>164.8557042632985</v>
       </c>
       <c r="AC3" t="n">
-        <v>119.7221420023032</v>
+        <v>149.122107224889</v>
       </c>
       <c r="AD3" t="n">
-        <v>96732.59441691893</v>
+        <v>120487.0550721023</v>
       </c>
       <c r="AE3" t="n">
-        <v>132353.8032220511</v>
+        <v>164855.7042632985</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.999023966346054e-06</v>
+        <v>7.561209225519077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.894675925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>119722.1420023032</v>
+        <v>149122.107224889</v>
       </c>
     </row>
     <row r="4">
@@ -4310,28 +4310,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.15362803102771</v>
+        <v>113.9080886862111</v>
       </c>
       <c r="AB4" t="n">
-        <v>123.3521711693666</v>
+        <v>155.8540722106141</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.5796130788542</v>
+        <v>140.97957830144</v>
       </c>
       <c r="AD4" t="n">
-        <v>90153.62803102771</v>
+        <v>113908.0886862111</v>
       </c>
       <c r="AE4" t="n">
-        <v>123352.1711693666</v>
+        <v>155854.0722106141</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.210836448285971e-06</v>
+        <v>7.961696570931902e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.700810185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>111579.6130788542</v>
+        <v>140979.57830144</v>
       </c>
     </row>
   </sheetData>
@@ -4607,28 +4607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.73651165174381</v>
+        <v>101.2504382753205</v>
       </c>
       <c r="AB2" t="n">
-        <v>111.8355012022692</v>
+        <v>138.5353165023172</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.1620779296651</v>
+        <v>125.3137003309112</v>
       </c>
       <c r="AD2" t="n">
-        <v>81736.51165174381</v>
+        <v>101250.4382753205</v>
       </c>
       <c r="AE2" t="n">
-        <v>111835.5012022692</v>
+        <v>138535.3165023172</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.30020953049467e-06</v>
+        <v>9.858517379837411e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.334490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>101162.0779296651</v>
+        <v>125313.7003309112</v>
       </c>
     </row>
   </sheetData>
@@ -4904,28 +4904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.9385205815526</v>
+        <v>136.6438505688457</v>
       </c>
       <c r="AB2" t="n">
-        <v>155.8957104723808</v>
+        <v>186.962144649443</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.0172426659434</v>
+        <v>169.1187399671709</v>
       </c>
       <c r="AD2" t="n">
-        <v>113938.5205815526</v>
+        <v>136643.8505688457</v>
       </c>
       <c r="AE2" t="n">
-        <v>155895.7104723808</v>
+        <v>186962.144649443</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.680383463638382e-06</v>
+        <v>7.213500726074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.401041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>141017.2426659434</v>
+        <v>169118.7399671709</v>
       </c>
     </row>
     <row r="3">
@@ -5010,28 +5010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>84.13154508978531</v>
+        <v>106.922126423099</v>
       </c>
       <c r="AB3" t="n">
-        <v>115.112491613614</v>
+        <v>146.2955704433254</v>
       </c>
       <c r="AC3" t="n">
-        <v>104.1263169754371</v>
+        <v>132.3333265273768</v>
       </c>
       <c r="AD3" t="n">
-        <v>84131.5450897853</v>
+        <v>106922.126423099</v>
       </c>
       <c r="AE3" t="n">
-        <v>115112.491613614</v>
+        <v>146295.5704433254</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364245496144886e-06</v>
+        <v>8.553860858858469e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.71238425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>104126.3169754371</v>
+        <v>132333.3265273768</v>
       </c>
     </row>
   </sheetData>
@@ -5307,28 +5307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.6302560768935</v>
+        <v>162.4825470203351</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.6293470138361</v>
+        <v>222.3157890571889</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.9629672287121</v>
+        <v>201.0982821718043</v>
       </c>
       <c r="AD2" t="n">
-        <v>127630.2560768935</v>
+        <v>162482.5470203351</v>
       </c>
       <c r="AE2" t="n">
-        <v>174629.3470138361</v>
+        <v>222315.7890571888</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.353314085509427e-06</v>
+        <v>6.447427324567271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.733796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>157962.9672287121</v>
+        <v>201098.2821718043</v>
       </c>
     </row>
     <row r="3">
@@ -5413,28 +5413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>88.42088594136166</v>
+        <v>111.7126404733705</v>
       </c>
       <c r="AB3" t="n">
-        <v>120.9813569991008</v>
+        <v>152.8501631094677</v>
       </c>
       <c r="AC3" t="n">
-        <v>109.4350660855392</v>
+        <v>138.2623580688932</v>
       </c>
       <c r="AD3" t="n">
-        <v>88420.88594136166</v>
+        <v>111712.6404733705</v>
       </c>
       <c r="AE3" t="n">
-        <v>120981.3569991008</v>
+        <v>152850.1631094677</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.245542108326642e-06</v>
+        <v>8.162916893204691e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.738425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>109435.0660855392</v>
+        <v>138262.3580688932</v>
       </c>
     </row>
     <row r="4">
@@ -5519,28 +5519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.13435971606785</v>
+        <v>110.4261142480767</v>
       </c>
       <c r="AB4" t="n">
-        <v>119.2210750601234</v>
+        <v>151.0898811704903</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.842782984246</v>
+        <v>136.6700749676</v>
       </c>
       <c r="AD4" t="n">
-        <v>87134.35971606785</v>
+        <v>110426.1142480767</v>
       </c>
       <c r="AE4" t="n">
-        <v>119221.0750601234</v>
+        <v>151089.8811704903</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.294025607968296e-06</v>
+        <v>8.256136267354892e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.695023148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>107842.782984246</v>
+        <v>136670.0749676</v>
       </c>
     </row>
   </sheetData>
@@ -5816,28 +5816,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.3520931172345</v>
+        <v>204.4600672347505</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.3467609730609</v>
+        <v>279.7512841320132</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.3627893995679</v>
+        <v>253.0522142079293</v>
       </c>
       <c r="AD2" t="n">
-        <v>168352.0931172345</v>
+        <v>204460.0672347505</v>
       </c>
       <c r="AE2" t="n">
-        <v>230346.7609730609</v>
+        <v>279751.2841320132</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.847441398340967e-06</v>
+        <v>5.304567356860937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.379050925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>208362.7893995679</v>
+        <v>253052.2142079293</v>
       </c>
     </row>
     <row r="3">
@@ -5922,28 +5922,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.5936201086796</v>
+        <v>141.6940796413978</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.896778897004</v>
+        <v>193.8720908668876</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.5410161391657</v>
+        <v>175.3692106157952</v>
       </c>
       <c r="AD3" t="n">
-        <v>117593.6201086796</v>
+        <v>141694.0796413978</v>
       </c>
       <c r="AE3" t="n">
-        <v>160896.778897004</v>
+        <v>193872.0908668876</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.763960936704118e-06</v>
+        <v>7.01197374210176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.068287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>145541.0161391658</v>
+        <v>175369.2106157952</v>
       </c>
     </row>
     <row r="4">
@@ -6028,28 +6028,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>92.89274564401144</v>
+        <v>117.0784565227502</v>
       </c>
       <c r="AB4" t="n">
-        <v>127.0999527287896</v>
+        <v>160.1919093513224</v>
       </c>
       <c r="AC4" t="n">
-        <v>114.9697116262915</v>
+        <v>144.9034183536331</v>
       </c>
       <c r="AD4" t="n">
-        <v>92892.74564401145</v>
+        <v>117078.4565227502</v>
       </c>
       <c r="AE4" t="n">
-        <v>127099.9527287896</v>
+        <v>160191.9093513225</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.148027779586615e-06</v>
+        <v>7.727461140295151e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.69212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>114969.7116262915</v>
+        <v>144903.4183536331</v>
       </c>
     </row>
     <row r="5">
@@ -6134,28 +6134,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.06888570615614</v>
+        <v>117.2545965848949</v>
       </c>
       <c r="AB5" t="n">
-        <v>127.340955332567</v>
+        <v>160.4329119550998</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.1877132798137</v>
+        <v>145.1214200071553</v>
       </c>
       <c r="AD5" t="n">
-        <v>93068.88570615614</v>
+        <v>117254.5965848949</v>
       </c>
       <c r="AE5" t="n">
-        <v>127340.955332567</v>
+        <v>160432.9119550998</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.14093405705784e-06</v>
+        <v>7.714246073257532e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>115187.7132798137</v>
+        <v>145121.4200071553</v>
       </c>
     </row>
   </sheetData>
@@ -6431,28 +6431,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.0232712115887</v>
+        <v>123.1789868437859</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.224496503816</v>
+        <v>168.5389240729623</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.0325445568282</v>
+        <v>152.4538057053512</v>
       </c>
       <c r="AD2" t="n">
-        <v>101023.2712115887</v>
+        <v>123178.9868437859</v>
       </c>
       <c r="AE2" t="n">
-        <v>138224.496503816</v>
+        <v>168538.9240729623</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.063324769508956e-06</v>
+        <v>8.144923752841869e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.076967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>125032.5445568282</v>
+        <v>152453.8057053512</v>
       </c>
     </row>
     <row r="3">
@@ -6537,28 +6537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.56176053591679</v>
+        <v>103.8027275141346</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.5963990161196</v>
+        <v>142.0274712379153</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.9457953205795</v>
+        <v>128.4725687198148</v>
       </c>
       <c r="AD3" t="n">
-        <v>81561.76053591679</v>
+        <v>103802.7275141346</v>
       </c>
       <c r="AE3" t="n">
-        <v>111596.3990161196</v>
+        <v>142027.4712379152</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.417660846817331e-06</v>
+        <v>8.855189482574953e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>100945.7953205795</v>
+        <v>128472.5687198148</v>
       </c>
     </row>
   </sheetData>
@@ -6834,28 +6834,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>77.34565175893522</v>
+        <v>98.63614977267902</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.8277329858644</v>
+        <v>134.9583316387361</v>
       </c>
       <c r="AC2" t="n">
-        <v>95.72768267987642</v>
+        <v>122.0780978823793</v>
       </c>
       <c r="AD2" t="n">
-        <v>77345.65175893522</v>
+        <v>98636.14977267903</v>
       </c>
       <c r="AE2" t="n">
-        <v>105827.7329858644</v>
+        <v>134958.3316387361</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.462139736298745e-06</v>
+        <v>9.335075381261162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.868634259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>95727.68267987642</v>
+        <v>122078.0978823793</v>
       </c>
     </row>
     <row r="3">
@@ -6940,28 +6940,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.671200997303</v>
+        <v>98.96169901104682</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.2731638160178</v>
+        <v>135.4037624688894</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.13060221676619</v>
+        <v>122.481017419269</v>
       </c>
       <c r="AD3" t="n">
-        <v>77671.20099730301</v>
+        <v>98961.69901104682</v>
       </c>
       <c r="AE3" t="n">
-        <v>106273.1638160178</v>
+        <v>135403.7624688894</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.458500630946665e-06</v>
+        <v>9.327462145282542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.871527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>96130.60221676619</v>
+        <v>122481.017419269</v>
       </c>
     </row>
   </sheetData>
@@ -11690,28 +11690,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.61084280990012</v>
+        <v>105.0563618696673</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7682878993978</v>
+        <v>143.7427490695986</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7195249841218</v>
+        <v>130.0241428426504</v>
       </c>
       <c r="AD2" t="n">
-        <v>84610.84280990012</v>
+        <v>105056.3618696672</v>
       </c>
       <c r="AE2" t="n">
-        <v>115768.2878993978</v>
+        <v>143742.7490695986</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.457769664684526e-06</v>
+        <v>9.690548306267176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.00462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>104719.5249841218</v>
+        <v>130024.1428426504</v>
       </c>
     </row>
   </sheetData>
@@ -11987,28 +11987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.61272001270655</v>
+        <v>109.0645111812563</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.2978799035511</v>
+        <v>149.2268757847798</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.77120504963109</v>
+        <v>134.9848722011566</v>
       </c>
       <c r="AD2" t="n">
-        <v>80612.72001270654</v>
+        <v>109064.5111812563</v>
       </c>
       <c r="AE2" t="n">
-        <v>110297.8799035511</v>
+        <v>149226.8757847798</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.086146218535432e-06</v>
+        <v>9.719008957684341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.690393518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>99771.2050496311</v>
+        <v>134984.8722011566</v>
       </c>
     </row>
   </sheetData>
@@ -12284,28 +12284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.4653655857387</v>
+        <v>143.5972190426172</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.8260277511833</v>
+        <v>196.4760501562194</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.0952629974389</v>
+        <v>177.7246516852338</v>
       </c>
       <c r="AD2" t="n">
-        <v>120465.3655857387</v>
+        <v>143597.2190426172</v>
       </c>
       <c r="AE2" t="n">
-        <v>164826.0277511833</v>
+        <v>196476.0501562194</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.515634166912204e-06</v>
+        <v>6.822363005865926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.560185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>149095.2629974388</v>
+        <v>177724.6516852338</v>
       </c>
     </row>
     <row r="3">
@@ -12390,28 +12390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.51645434639481</v>
+        <v>108.5629669487017</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.0073855563905</v>
+        <v>148.5406408392289</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.840364899816</v>
+        <v>134.3641305556721</v>
       </c>
       <c r="AD3" t="n">
-        <v>85516.45434639481</v>
+        <v>108562.9669487017</v>
       </c>
       <c r="AE3" t="n">
-        <v>117007.3855563905</v>
+        <v>148540.6408392289</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.334178072949382e-06</v>
+        <v>8.410811461562282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.697916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>105840.364899816</v>
+        <v>134364.1305556721</v>
       </c>
     </row>
     <row r="4">
@@ -12496,28 +12496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.81412256672226</v>
+        <v>108.8606351690291</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.4146683476373</v>
+        <v>148.9479236304758</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.2087771930914</v>
+        <v>134.7325428489475</v>
       </c>
       <c r="AD4" t="n">
-        <v>85814.12256672226</v>
+        <v>108860.6351690291</v>
       </c>
       <c r="AE4" t="n">
-        <v>117414.6683476373</v>
+        <v>148947.9236304758</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.324650458965597e-06</v>
+        <v>8.392322381615083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.706597222222223</v>
       </c>
       <c r="AH4" t="n">
-        <v>106208.7771930913</v>
+        <v>134732.5428489475</v>
       </c>
     </row>
   </sheetData>
@@ -12793,28 +12793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.5694728467225</v>
+        <v>184.5432237635222</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.6982365739775</v>
+        <v>252.5001802255718</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.7305452238317</v>
+        <v>228.4019174111454</v>
       </c>
       <c r="AD2" t="n">
-        <v>160569.4728467225</v>
+        <v>184543.2237635222</v>
       </c>
       <c r="AE2" t="n">
-        <v>219698.2365739775</v>
+        <v>252500.1802255718</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967527567500694e-06</v>
+        <v>5.568245667726508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.205439814814814</v>
       </c>
       <c r="AH2" t="n">
-        <v>198730.5452238318</v>
+        <v>228401.9174111454</v>
       </c>
     </row>
     <row r="3">
@@ -12899,28 +12899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.6928811773476</v>
+        <v>136.4826915805773</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.772442283188</v>
+        <v>186.7416398118616</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.6236337565547</v>
+        <v>168.9192798018076</v>
       </c>
       <c r="AD3" t="n">
-        <v>100692.8811773476</v>
+        <v>136482.6915805773</v>
       </c>
       <c r="AE3" t="n">
-        <v>137772.442283188</v>
+        <v>186741.6398118616</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.891884060762729e-06</v>
+        <v>7.302701008734889e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.969907407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>124623.6337565547</v>
+        <v>168919.2798018077</v>
       </c>
     </row>
     <row r="4">
@@ -13005,28 +13005,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>91.40382922695252</v>
+        <v>115.3774906352011</v>
       </c>
       <c r="AB4" t="n">
-        <v>125.0627516006142</v>
+        <v>157.8645727826601</v>
       </c>
       <c r="AC4" t="n">
-        <v>113.1269381145588</v>
+        <v>142.7981995206459</v>
       </c>
       <c r="AD4" t="n">
-        <v>91403.82922695253</v>
+        <v>115377.4906352011</v>
       </c>
       <c r="AE4" t="n">
-        <v>125062.7516006142</v>
+        <v>157864.5727826601</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.179114082720517e-06</v>
+        <v>7.841657189942148e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.695023148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>113126.9381145588</v>
+        <v>142798.1995206459</v>
       </c>
     </row>
     <row r="5">
@@ -13111,28 +13111,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.63832019036442</v>
+        <v>115.611981598613</v>
       </c>
       <c r="AB5" t="n">
-        <v>125.3835924817654</v>
+        <v>158.1854136638113</v>
       </c>
       <c r="AC5" t="n">
-        <v>113.417158392316</v>
+        <v>143.0884197984031</v>
       </c>
       <c r="AD5" t="n">
-        <v>91638.32019036442</v>
+        <v>115611.981598613</v>
       </c>
       <c r="AE5" t="n">
-        <v>125383.5924817654</v>
+        <v>158185.4136638113</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.178526918579737e-06</v>
+        <v>7.840555439711097e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.695023148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>113417.158392316</v>
+        <v>143088.4197984031</v>
       </c>
     </row>
   </sheetData>
@@ -13408,28 +13408,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.00188839443436</v>
+        <v>117.4824672841342</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.1445543042994</v>
+        <v>160.7446946987445</v>
       </c>
       <c r="AC2" t="n">
-        <v>111.3918108759969</v>
+        <v>145.4034466433366</v>
       </c>
       <c r="AD2" t="n">
-        <v>90001.88839443435</v>
+        <v>117482.4672841342</v>
       </c>
       <c r="AE2" t="n">
-        <v>123144.5543042994</v>
+        <v>160744.6946987445</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.6060995305888e-06</v>
+        <v>9.018581260798073e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.503472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>111391.8108759969</v>
+        <v>145403.4466433366</v>
       </c>
     </row>
   </sheetData>
@@ -13705,28 +13705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.87013132449341</v>
+        <v>100.498025273179</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.9135931827519</v>
+        <v>137.5058318386687</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.61447130709678</v>
+        <v>124.3824682386701</v>
       </c>
       <c r="AD2" t="n">
-        <v>78870.13132449341</v>
+        <v>100498.025273179</v>
       </c>
       <c r="AE2" t="n">
-        <v>107913.5931827519</v>
+        <v>137505.8318386687</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.453713128071449e-06</v>
+        <v>9.171457771845703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.819444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>97614.47130709678</v>
+        <v>124382.4682386701</v>
       </c>
     </row>
     <row r="3">
@@ -13811,28 +13811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.55268248438634</v>
+        <v>100.1805764330719</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.4792456748632</v>
+        <v>137.07148433078</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.22157731575032</v>
+        <v>123.9895742473237</v>
       </c>
       <c r="AD3" t="n">
-        <v>78552.68248438634</v>
+        <v>100180.5764330719</v>
       </c>
       <c r="AE3" t="n">
-        <v>107479.2456748632</v>
+        <v>137071.48433078</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.474171320082549e-06</v>
+        <v>9.213586988237186e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.802083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>97221.57731575033</v>
+        <v>123989.5742473237</v>
       </c>
     </row>
   </sheetData>
@@ -14108,28 +14108,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.574200276554</v>
+        <v>130.0115635880802</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.1877666570903</v>
+        <v>177.8875570065131</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.1403727867055</v>
+        <v>160.9102182326156</v>
       </c>
       <c r="AD2" t="n">
-        <v>107574.200276554</v>
+        <v>130011.5635880802</v>
       </c>
       <c r="AE2" t="n">
-        <v>147187.7666570903</v>
+        <v>177887.5570065131</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.857130737002621e-06</v>
+        <v>7.641686133218781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133140.3727867055</v>
+        <v>160910.2182326156</v>
       </c>
     </row>
     <row r="3">
@@ -14214,28 +14214,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.83061274747435</v>
+        <v>105.3532274050212</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.3324985897807</v>
+        <v>144.1489335918527</v>
       </c>
       <c r="AC3" t="n">
-        <v>102.516203987562</v>
+        <v>130.3915616841842</v>
       </c>
       <c r="AD3" t="n">
-        <v>82830.61274747434</v>
+        <v>105353.2274050212</v>
       </c>
       <c r="AE3" t="n">
-        <v>113332.4985897807</v>
+        <v>144148.9335918527</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.388549588745436e-06</v>
+        <v>8.694524718993519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.732638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>102516.203987562</v>
+        <v>130391.5616841842</v>
       </c>
     </row>
   </sheetData>
